--- a/201708044216LBW/LogRrcord.xlsx
+++ b/201708044216LBW/LogRrcord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -33,16 +33,25 @@
   <si>
     <t>今天的任务主要是继续学习srping，并且继续尝试对仓库模块进行完善</t>
   </si>
+  <si>
+    <t>今天的任务主要是学习书上的在IOC容器中装配bean的相关概念</t>
+  </si>
+  <si>
+    <t>主要学习bean的生命周期的部分知识</t>
+  </si>
+  <si>
+    <t>主要学习spring的AOP的相关知识</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,14 +63,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,8 +113,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,109 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,43 +215,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,13 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,115 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,56 +412,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +444,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,145 +514,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,10 +982,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1021,6 +1030,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43560</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43561</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43562</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="600"/>

--- a/201708044216LBW/LogRrcord.xlsx
+++ b/201708044216LBW/LogRrcord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -42,16 +42,22 @@
   <si>
     <t>主要学习spring的AOP的相关知识</t>
   </si>
+  <si>
+    <t>主要学习如何在IDEA上使用JPQL的相关操作</t>
+  </si>
+  <si>
+    <t>学习使用AspectJ的相关操作以及在IDEA上运行此类型的文件</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,8 +75,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -78,6 +91,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -85,7 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,29 +120,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,48 +134,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,25 +158,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +221,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,55 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,109 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +419,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,22 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,24 +471,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +503,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +532,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1054,6 +1060,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>43563</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>43564</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="600"/>

--- a/201708044216LBW/LogRrcord.xlsx
+++ b/201708044216LBW/LogRrcord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -48,6 +48,9 @@
   <si>
     <t>学习使用AspectJ的相关操作以及在IDEA上运行此类型的文件</t>
   </si>
+  <si>
+    <t>今天主要是按照老师的结构对自己的项目进行了结构上的优化，并且继续学习了AOP的前置通知的部分</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,15 +71,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,8 +122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,16 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,9 +153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,16 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,10 +432,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -435,21 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,35 +499,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +514,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,141 +549,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,92 +1017,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="1"/>
+    <col min="2" max="2" width="11.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="46.0083333333333" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
         <v>43556</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
         <v>43557</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
         <v>43558</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
         <v>43559</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
         <v>43560</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
         <v>43561</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
         <v>43562</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
         <v>43563</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
         <v>43564</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>43565</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/201708044216LBW/LogRrcord.xlsx
+++ b/201708044216LBW/LogRrcord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>今天主要是按照老师的结构对自己的项目进行了结构上的优化，并且继续学习了AOP的前置通知的部分</t>
+  </si>
+  <si>
+    <t>将仓库部分加入循环通知的功能，并且将仓库的各个功能进行举例</t>
+  </si>
+  <si>
+    <t>主要看了下书上关于项目构建的内容，以及学习事务处理这一部分</t>
+  </si>
+  <si>
+    <t>继续学习spring中事务的部分</t>
+  </si>
+  <si>
+    <t>学习老师上课发的模板，学习@OnetoMany等注解的用处</t>
+  </si>
+  <si>
+    <t>再次学习JDBCTemplate，练习自己配pom文件</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,37 +86,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -137,7 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -153,8 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,45 +185,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +246,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,67 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,73 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,16 +440,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -458,26 +466,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +490,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -506,25 +508,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -537,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,153 +557,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,105 +1019,145 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="46.0083333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="111.008333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43556</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43557</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43558</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43559</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>43560</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43561</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>43562</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>43563</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>43564</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>43565</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>43566</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>43568</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>43569</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>43570</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>43571</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/201708044216LBW/LogRrcord.xlsx
+++ b/201708044216LBW/LogRrcord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -65,6 +65,42 @@
   </si>
   <si>
     <t>再次学习JDBCTemplate，练习自己配pom文件</t>
+  </si>
+  <si>
+    <t>学习spring中的事务的深入部分 主要是RowMapper这一部分</t>
+  </si>
+  <si>
+    <t>学习老师项目中的级联部分</t>
+  </si>
+  <si>
+    <t>根据老师的模板配置自己的项目以及级联属性</t>
+  </si>
+  <si>
+    <t>重新学习了spring中的各种注解的作用以及配置方式，位置等</t>
+  </si>
+  <si>
+    <t>使用调用方法的原有的事务</t>
+  </si>
+  <si>
+    <t>重新学习了配置各种类型的数据源以及和事务等连接</t>
+  </si>
+  <si>
+    <t>学习配置事务的各种方法等</t>
+  </si>
+  <si>
+    <t>使用maven重新建立了自己的项目</t>
+  </si>
+  <si>
+    <t>了解了mvc的框架的结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始学习JPA Hibernate </t>
+  </si>
+  <si>
+    <t>了解Hibernate和Mybatics的作用</t>
+  </si>
+  <si>
+    <t>主要在看书</t>
   </si>
 </sst>
 </file>
@@ -109,7 +145,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,8 +173,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,22 +205,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -185,6 +221,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,7 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,24 +257,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,13 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,145 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +473,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,16 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,35 +541,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,145 +581,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1160,6 +1196,102 @@
         <v>16</v>
       </c>
     </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>43572</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3">
+        <v>43574</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>43575</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>43576</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3">
+        <v>43577</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>43578</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>43579</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>43580</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>43581</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>43582</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
+        <v>43583</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3">
+        <v>43584</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="600"/>
